--- a/ClientApp/src/data/samples/cars-nested/data.xlsx
+++ b/ClientApp/src/data/samples/cars-nested/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\code\ms\git\thing-faceter\ETL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\code\ms\git\thing-faceter\ClientApp\src\data\samples\cars-nested\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB5FCB-8F43-413B-9DBD-93ABCC5FF6E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4A10EE-3D6A-4654-949D-EBA8B28D5A4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF463D88-A0E6-4357-A338-35705389DF51}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF463D88-A0E6-4357-A338-35705389DF51}"/>
   </bookViews>
   <sheets>
     <sheet name="cars" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>red</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>SUV</t>
+  </si>
+  <si>
+    <t>Camero</t>
+  </si>
+  <si>
+    <t>Chevy</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>Gray</t>
   </si>
 </sst>
 </file>
@@ -437,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DC365B-98FA-4B68-92E3-107E87AAFBCD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +522,34 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
